--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/体力购买表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/体力购买表.xlsx
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C6" s="7">
         <v>100</v>
@@ -1177,66 +1177,36 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7">
-        <v>200</v>
-      </c>
-      <c r="C9" s="7">
-        <v>100</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" ht="13.5" spans="1:3">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7">
-        <v>200</v>
-      </c>
-      <c r="C10" s="7">
-        <v>100</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
-        <v>300</v>
-      </c>
-      <c r="C11" s="7">
-        <v>100</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7">
-        <v>400</v>
-      </c>
-      <c r="C12" s="7">
-        <v>100</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7">
-        <v>500</v>
-      </c>
-      <c r="C13" s="7">
-        <v>100</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="13.5" spans="1:1">
       <c r="A14" s="7"/>
